--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB90E492-5718-4994-B240-8C53E9C396A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9510" yWindow="12705" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
